--- a/game-manage/src/main/resources/biz_config/K_zhuiluo.xlsx
+++ b/game-manage/src/main/resources/biz_config/K_zhuiluo.xlsx
@@ -1,166 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>shijian</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
   <si>
     <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guize1num</t>
   </si>
   <si>
     <t>guize1quanzhong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemgailv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guize1num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填入道具id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanggao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jiangli1time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guize2num</t>
+  </si>
+  <si>
+    <t>guize2quanzhong</t>
+  </si>
+  <si>
+    <t>time2</t>
+  </si>
+  <si>
+    <t>jiangli2time</t>
+  </si>
+  <si>
+    <t>guize3num</t>
+  </si>
+  <si>
+    <t>guize3quanzhong</t>
+  </si>
+  <si>
+    <t>time3</t>
+  </si>
+  <si>
+    <t>jiangli3time</t>
   </si>
   <si>
     <t>40;70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;6</t>
   </si>
   <si>
     <t>0.5;2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则命中值*2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zongtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1;10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guize2num</t>
-  </si>
-  <si>
-    <t>guize2quanzhong</t>
-  </si>
-  <si>
-    <t>time2</t>
-  </si>
-  <si>
-    <t>jiangli2time</t>
-  </si>
-  <si>
-    <t>guize3num</t>
-  </si>
-  <si>
-    <t>guize3quanzhong</t>
-  </si>
-  <si>
-    <t>time3</t>
-  </si>
-  <si>
-    <t>jiangli3time</t>
-  </si>
-  <si>
-    <t>num80%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -168,11 +104,162 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,42 +268,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -226,27 +493,18 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -255,38 +513,27 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -294,57 +541,336 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -366,15 +892,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1924050" y="2647950"/>
-          <a:ext cx="8428571" cy="7666667"/>
+          <a:off x="1943100" y="2518410"/>
+          <a:ext cx="7595235" cy="7285355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -429,7 +955,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -464,7 +990,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -638,141 +1164,104 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="11.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="14.25" style="1"/>
+    <col min="1" max="1" width="4.87962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.87962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.12962962962963" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.87962962962963" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.8796296296296" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.6296296296296" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.12962962962963" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.87962962962963" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.8796296296296" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.6296296296296" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.12962962962963" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.87962962962963" style="4" customWidth="1"/>
+    <col min="14" max="14" width="13.8796296296296" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.6296296296296" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.12962962962963" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="14.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="12.15" spans="1:16">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="N1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F2" s="4">
         <v>100</v>
@@ -784,58 +1273,34 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J2" s="4">
         <v>30</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
+      <c r="K2" s="4">
+        <v>2.5</v>
       </c>
       <c r="L2" s="4">
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N2" s="4">
         <v>0</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>21</v>
+      <c r="O2" s="4">
+        <v>2.5</v>
       </c>
       <c r="P2" s="4">
         <v>0</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="4">
-        <v>15</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="W2" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="X2" s="15">
-        <v>0.3</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>